--- a/Tratamento/Etapa 1/Comparação dos campos de cada tabela.xlsx
+++ b/Tratamento/Etapa 1/Comparação dos campos de cada tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\GenderViolence-DataVis\Tratamento com Python\Etapa 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\GenderViolence-DataVis-Python\Tratamento\Etapa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100C99F7-A558-4744-B65D-996A98C0C4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B542512-AC80-42DF-BA86-108A2B4DBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -953,82 +953,82 @@
   </sheetPr>
   <dimension ref="A1:BK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="AA5" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="29" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="26" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2014</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2015</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2016</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2017</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2019</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
@@ -3104,8 +3104,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>100</v>
       </c>
@@ -3296,19 +3296,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:63" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3372,13 +3372,13 @@
       <c r="BI23" s="10"/>
       <c r="BJ23" s="10"/>
     </row>
-    <row r="24" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
   </sheetData>
